--- a/Modello/nuovi modelli/inputTesiOriginali/test6/DMU/dmu-36.xlsx
+++ b/Modello/nuovi modelli/inputTesiOriginali/test6/DMU/dmu-36.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
-  <workbookPr filterPrivacy="1"/>
+  <workbookPr filterPrivacy="true"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
@@ -67,17 +67,12 @@
     <definedName name="SBM_7">ANNO1!$G$8</definedName>
     <definedName name="SBM_9">ANNO1!$G$9</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="162913" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="51">
   <si>
     <t>soluzione1</t>
   </si>
@@ -122,13 +117,121 @@
   </si>
   <si>
     <t>HYBRID</t>
+  </si>
+  <si>
+    <t>371314</t>
+  </si>
+  <si>
+    <t>0.755566</t>
+  </si>
+  <si>
+    <t>1.29336</t>
+  </si>
+  <si>
+    <t>0.604282</t>
+  </si>
+  <si>
+    <t>1.65486</t>
+  </si>
+  <si>
+    <t>0.549971</t>
+  </si>
+  <si>
+    <t>0.302141</t>
+  </si>
+  <si>
+    <t>371325</t>
+  </si>
+  <si>
+    <t>1.15855e-009</t>
+  </si>
+  <si>
+    <t>0.402855</t>
+  </si>
+  <si>
+    <t>371216</t>
+  </si>
+  <si>
+    <t>0.539986</t>
+  </si>
+  <si>
+    <t>1.8519</t>
+  </si>
+  <si>
+    <t>0.518097</t>
+  </si>
+  <si>
+    <t>0.269993</t>
+  </si>
+  <si>
+    <t>324360</t>
+  </si>
+  <si>
+    <t>0.78789</t>
+  </si>
+  <si>
+    <t>1.2766</t>
+  </si>
+  <si>
+    <t>0.783183</t>
+  </si>
+  <si>
+    <t>1.27684</t>
+  </si>
+  <si>
+    <t>0.667881</t>
+  </si>
+  <si>
+    <t>0.391591</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0.94521</t>
+  </si>
+  <si>
+    <t>1.05797</t>
+  </si>
+  <si>
+    <t>0.472605</t>
+  </si>
+  <si>
+    <t>0.63014</t>
+  </si>
+  <si>
+    <t>0.609909</t>
+  </si>
+  <si>
+    <t>1.63959</t>
+  </si>
+  <si>
+    <t>0.507089</t>
+  </si>
+  <si>
+    <t>0.406606</t>
+  </si>
+  <si>
+    <t>0.72827</t>
+  </si>
+  <si>
+    <t>1.37312</t>
+  </si>
+  <si>
+    <t>0.672829</t>
+  </si>
+  <si>
+    <t>0.485514</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,14 +268,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -438,26 +533,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="true" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" bestFit="true" customWidth="true"/>
+    <col min="2" max="2" width="8.77734375" bestFit="true" customWidth="true"/>
+    <col min="3" max="3" width="4.33203125" bestFit="true" customWidth="true"/>
+    <col min="4" max="4" width="6.33203125" bestFit="true" customWidth="true"/>
+    <col min="5" max="5" width="4.33203125" bestFit="true" customWidth="true"/>
+    <col min="6" max="6" width="6.33203125" bestFit="true" customWidth="true"/>
+    <col min="7" max="7" width="4.6640625" bestFit="true" customWidth="true"/>
+    <col min="8" max="8" width="7.21875" bestFit="true" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1">
       <c r="B1" t="s">
         <v>8</v>
       </c>
@@ -480,44 +575,212 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" t="s">
         <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/Modello/nuovi modelli/inputTesiOriginali/test6/DMU/dmu-36.xlsx
+++ b/Modello/nuovi modelli/inputTesiOriginali/test6/DMU/dmu-36.xlsx
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="51">
   <si>
     <t>soluzione1</t>
   </si>
@@ -579,208 +579,208 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" t="s">
-        <v>21</v>
+      <c r="B2">
+        <v>371314.1365024565</v>
+      </c>
+      <c r="C2">
+        <v>0.75556558288310127</v>
+      </c>
+      <c r="D2">
+        <v>1.2933621236171833</v>
+      </c>
+      <c r="E2">
+        <v>0.60428233712108947</v>
+      </c>
+      <c r="F2">
+        <v>1.6548555841697792</v>
+      </c>
+      <c r="G2">
+        <v>0.54997071624815319</v>
+      </c>
+      <c r="H2">
+        <v>0.30214116856054474</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" t="s">
-        <v>24</v>
+      <c r="B3">
+        <v>371324.68184044922</v>
+      </c>
+      <c r="C3">
+        <v>0.75556558288310127</v>
+      </c>
+      <c r="D3">
+        <v>1.2933621236171833</v>
+      </c>
+      <c r="E3">
+        <v>0.60428233712108947</v>
+      </c>
+      <c r="F3">
+        <v>1.6548555841697792</v>
+      </c>
+      <c r="G3">
+        <v>1.1585481660550646e-009</v>
+      </c>
+      <c r="H3">
+        <v>0.40285489141405972</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" t="s">
-        <v>29</v>
+      <c r="B4">
+        <v>371215.58033852209</v>
+      </c>
+      <c r="C4">
+        <v>0.75556558288310116</v>
+      </c>
+      <c r="D4">
+        <v>1.2933621236171833</v>
+      </c>
+      <c r="E4">
+        <v>0.53998628637233015</v>
+      </c>
+      <c r="F4">
+        <v>1.8518988819476838</v>
+      </c>
+      <c r="G4">
+        <v>0.51809667496969747</v>
+      </c>
+      <c r="H4">
+        <v>0.26999314318616507</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5" t="s">
-        <v>36</v>
+      <c r="B5">
+        <v>324359.52900051291</v>
+      </c>
+      <c r="C5">
+        <v>0.78788989150460675</v>
+      </c>
+      <c r="D5">
+        <v>1.2765965949552844</v>
+      </c>
+      <c r="E5">
+        <v>0.78318273607562727</v>
+      </c>
+      <c r="F5">
+        <v>1.2768412197270855</v>
+      </c>
+      <c r="G5">
+        <v>0.66788114626864259</v>
+      </c>
+      <c r="H5">
+        <v>0.39159136803781364</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" t="s">
-        <v>41</v>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>0.94520977823390329</v>
+      </c>
+      <c r="F6">
+        <v>1.0579662028766468</v>
+      </c>
+      <c r="G6">
+        <v>0.99999999999999978</v>
+      </c>
+      <c r="H6">
+        <v>0.47260488911695164</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" t="s">
-        <v>42</v>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>0.94520977775135817</v>
+      </c>
+      <c r="F7">
+        <v>1.0579662034167561</v>
+      </c>
+      <c r="G7">
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="H7">
+        <v>0.63013985183423893</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8" t="s">
-        <v>44</v>
-      </c>
-      <c r="G8" t="s">
-        <v>45</v>
-      </c>
-      <c r="H8" t="s">
-        <v>46</v>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>0.60990900784135627</v>
+      </c>
+      <c r="F8">
+        <v>1.6395888356187565</v>
+      </c>
+      <c r="G8">
+        <v>0.50708892223017532</v>
+      </c>
+      <c r="H8">
+        <v>0.40660600522757084</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" t="s">
-        <v>49</v>
-      </c>
-      <c r="H9" t="s">
-        <v>50</v>
+      <c r="B9">
+        <v>324359.52900051285</v>
+      </c>
+      <c r="C9">
+        <v>0.75556558288310127</v>
+      </c>
+      <c r="D9">
+        <v>1.2933621236171833</v>
+      </c>
+      <c r="E9">
+        <v>0.72827042961518429</v>
+      </c>
+      <c r="F9">
+        <v>1.3731163031408493</v>
+      </c>
+      <c r="G9">
+        <v>0.67282932879158985</v>
+      </c>
+      <c r="H9">
+        <v>0.48551361974345619</v>
       </c>
     </row>
   </sheetData>

--- a/Modello/nuovi modelli/inputTesiOriginali/test6/DMU/dmu-36.xlsx
+++ b/Modello/nuovi modelli/inputTesiOriginali/test6/DMU/dmu-36.xlsx
@@ -598,7 +598,7 @@
         <v>0.54997071624815319</v>
       </c>
       <c r="H2">
-        <v>0.30214116856054474</v>
+        <v>0.60428233712108947</v>
       </c>
     </row>
     <row r="3">
@@ -624,7 +624,7 @@
         <v>1.1585481660550646e-009</v>
       </c>
       <c r="H3">
-        <v>0.40285489141405972</v>
+        <v>0.60428233712108947</v>
       </c>
     </row>
     <row r="4">
@@ -650,7 +650,7 @@
         <v>0.51809667496969747</v>
       </c>
       <c r="H4">
-        <v>0.26999314318616507</v>
+        <v>0.53998628637233015</v>
       </c>
     </row>
     <row r="5">
@@ -676,7 +676,7 @@
         <v>0.66788114626864259</v>
       </c>
       <c r="H5">
-        <v>0.39159136803781364</v>
+        <v>0.78318273607562727</v>
       </c>
     </row>
     <row r="6">
@@ -702,7 +702,7 @@
         <v>0.99999999999999978</v>
       </c>
       <c r="H6">
-        <v>0.47260488911695164</v>
+        <v>0.94520977823390329</v>
       </c>
     </row>
     <row r="7">
@@ -728,7 +728,7 @@
         <v>1.0000000000000002</v>
       </c>
       <c r="H7">
-        <v>0.63013985183423893</v>
+        <v>0.94520977775135817</v>
       </c>
     </row>
     <row r="8">
@@ -754,7 +754,7 @@
         <v>0.50708892223017532</v>
       </c>
       <c r="H8">
-        <v>0.40660600522757084</v>
+        <v>0.60990900784135627</v>
       </c>
     </row>
     <row r="9">
@@ -780,7 +780,7 @@
         <v>0.67282932879158985</v>
       </c>
       <c r="H9">
-        <v>0.48551361974345619</v>
+        <v>0.72827042961518429</v>
       </c>
     </row>
   </sheetData>
